--- a/biology/Botanique/Gyroporus_ammophilus/Gyroporus_ammophilus.xlsx
+++ b/biology/Botanique/Gyroporus_ammophilus/Gyroporus_ammophilus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bolet des sables
-Gyroporus ammophilus, le Bolet des sables, est une espèce de champignons (Fungi) basidiomycètes du genre Gyroporus dans la famille des Gyroporaceae. C'est une espèce quasi menacée[1]. Il est très proche en apparence de Gyroporus castaneus et est caractérisé par son biotope en milieux sablonneux sous les pins.
+Gyroporus ammophilus, le Bolet des sables, est une espèce de champignons (Fungi) basidiomycètes du genre Gyroporus dans la famille des Gyroporaceae. C'est une espèce quasi menacée. Il est très proche en apparence de Gyroporus castaneus et est caractérisé par son biotope en milieux sablonneux sous les pins.
 </t>
         </is>
       </c>
@@ -512,13 +524,13 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Gyroporus ammophilus (M.L. Castro &amp; L. Freire) M.L. Castro &amp; L. Freire[2].
-L'espèce a été initialement classée dans le genre Gyroporus sous le basionyme Gyroporus castaneus var. ammophilus M.L. Castro &amp; L. Freire 1989[2].
-Synonymes
-Gyroporus ammophilus a pour synonyme :
-Gyroporus castaneus var. ammophilus M.L. Castro &amp; L. Freire</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Gyroporus ammophilus (M.L. Castro &amp; L. Freire) M.L. Castro &amp; L. Freire.
+L'espèce a été initialement classée dans le genre Gyroporus sous le basionyme Gyroporus castaneus var. ammophilus M.L. Castro &amp; L. Freire 1989.
+</t>
         </is>
       </c>
     </row>
@@ -543,18 +555,92 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Gyroporus ammophilus a pour synonyme :
+Gyroporus castaneus var. ammophilus M.L. Castro &amp; L. Freire</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Gyroporus_ammophilus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gyroporus_ammophilus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les bolets sont des champignons dont l'hyménophore à tubes, terminés par des pores, se sépare facilement de la chair du chapeau, avec un pied central assez épais et une chair compacte. Ils ont un chapeau rond, recouvert d'une cuticule, devenant convexe à mesure qu’ils vieillissent. Les caractéristiques macroscopiques de Gyroporus ammophilus, le Bolet des sables, sont les suivantes :
-C'est un Bolet de stature imposante (contrairement à G. castaneus). Son chapeau est feutré, de couleurs vives, orangé saumoné à fauve cuivré, souvent difforme[3],[4].
-L'hyménophore présente des pores blanchâtres à saumonés, brunissants[3],[4].
-Son stipe est subconcolore à plus pâle que le chapeau, de forme clavée et d’aspect buriné. Comme tous les Gyroporus, sa surface est sublisse, sans ornementation[3],[4].
-La chair est de couleur blanche à crème, sa saveur est douce[4]. La description originale mentionne un très léger bleuissement de la chair chez les spécimens matures à la coupe[5].
-Caractéristiques microscopiques
-Ses spores mesurent 9-11,5 x 5,5-7,5 µm[3].
+C'est un Bolet de stature imposante (contrairement à G. castaneus). Son chapeau est feutré, de couleurs vives, orangé saumoné à fauve cuivré, souvent difforme,.
+L'hyménophore présente des pores blanchâtres à saumonés, brunissants,.
+Son stipe est subconcolore à plus pâle que le chapeau, de forme clavée et d’aspect buriné. Comme tous les Gyroporus, sa surface est sublisse, sans ornementation,.
+La chair est de couleur blanche à crème, sa saveur est douce. La description originale mentionne un très léger bleuissement de la chair chez les spécimens matures à la coupe.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Gyroporus_ammophilus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gyroporus_ammophilus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Caractéristiques microscopiques</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses spores mesurent 9-11,5 x 5,5-7,5 µm.
 </t>
         </is>
       </c>
